--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19035" windowHeight="8955"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19035" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>test1</t>
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>testj</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>ll</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -378,12 +387,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
